--- a/dataset/QAA/QAA.xlsx
+++ b/dataset/QAA/QAA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\HAI\Coursework_1\dataset\QAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\HAI\Coursework_1\hai\dataset\QAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BB8962-3194-46FE-9FF4-15BC10E3C9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B8B51B-F65B-47DA-A2A8-8DDC4327FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="1476" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5424" yWindow="1476" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>When is the latest checkout?</t>
   </si>
   <si>
-    <t>When does the pool open?</t>
-  </si>
-  <si>
     <t>The pool is open from midday to 10pm.</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>You can contact customer service on 07742249022, they will put you through.</t>
+  </si>
+  <si>
+    <t>What time does the pool open?</t>
   </si>
 </sst>
 </file>
@@ -479,18 +479,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -530,223 +530,223 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
         <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/QAA/QAA.xlsx
+++ b/dataset/QAA/QAA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\HAI\Coursework_1\hai\dataset\QAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B8B51B-F65B-47DA-A2A8-8DDC4327FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B35747-C7F2-40C2-84A3-987876BBA048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="1476" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>what time can I check in?</t>
   </si>
@@ -160,6 +160,87 @@
   </si>
   <si>
     <t>What time does the pool open?</t>
+  </si>
+  <si>
+    <t>How do I get to the airport from the hotel?</t>
+  </si>
+  <si>
+    <t>Taxi's can be found outside of reception who will take you to the hospital!</t>
+  </si>
+  <si>
+    <t>Can I have some more towels in my room please</t>
+  </si>
+  <si>
+    <t>The cleaners will bring fresh supplies tomorrow.</t>
+  </si>
+  <si>
+    <t>Can I have fresh bedding please</t>
+  </si>
+  <si>
+    <t>Can I reset my safe?</t>
+  </si>
+  <si>
+    <t>The cleaners will reset the safe when they come tomorrow.</t>
+  </si>
+  <si>
+    <t>I spilled a drink in my room! Can someone clean it up?</t>
+  </si>
+  <si>
+    <t>The cleaners will be around tomorrow morning</t>
+  </si>
+  <si>
+    <t>When does breakfast start?</t>
+  </si>
+  <si>
+    <t>Breakfast runs from 7am to 10am</t>
+  </si>
+  <si>
+    <t>When is breakfast?</t>
+  </si>
+  <si>
+    <t>What time is breakfast?</t>
+  </si>
+  <si>
+    <t>Is there a gym?</t>
+  </si>
+  <si>
+    <t>Yes! The resort has a gym just to the right of reception.</t>
+  </si>
+  <si>
+    <t>When is the gym open?</t>
+  </si>
+  <si>
+    <t>The gym has 24h access</t>
+  </si>
+  <si>
+    <t>Can I cancel my booking?</t>
+  </si>
+  <si>
+    <t>Does cancelling a booking cost?</t>
+  </si>
+  <si>
+    <t>Can I change the dates on my booking?</t>
+  </si>
+  <si>
+    <t>Where is my booking information?</t>
+  </si>
+  <si>
+    <t>To cancel a booking, please call reception at 07742249022</t>
+  </si>
+  <si>
+    <t>The hotels booking policy can be found in your booking confirmation email</t>
+  </si>
+  <si>
+    <t>The hotels policy for this can be found in your booking cofnrimation email</t>
+  </si>
+  <si>
+    <t>You booking information has been sent to the email provided when making your booking.</t>
+  </si>
+  <si>
+    <t>I can't access my booking email, what do I do?</t>
+  </si>
+  <si>
+    <t>Please call the hotel ASAP on 07742249022</t>
   </si>
 </sst>
 </file>
@@ -477,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,6 +830,126 @@
         <v>43</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
